--- a/test_已轉檔.xlsx
+++ b/test_已轉檔.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,10 +446,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>廠商名稱</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>屬性1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>屬性2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>兌現日期(年)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>兌現日期</t>
         </is>
@@ -467,10 +482,21 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9</v>
+      </c>
+      <c r="G2" t="n">
         <v>110</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>12 月 31 日</t>
         </is>
@@ -488,10 +514,21 @@
       <c r="C3" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" t="n">
         <v>111</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>1 月 5 日</t>
         </is>
@@ -509,10 +546,21 @@
       <c r="C4" t="n">
         <v>10</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7</v>
+      </c>
+      <c r="G4" t="n">
         <v>111</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>1 月 10 日</t>
         </is>
@@ -530,10 +578,21 @@
       <c r="C5" t="n">
         <v>30</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" t="n">
         <v>111</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>1 月 31 日</t>
         </is>
@@ -551,10 +610,21 @@
       <c r="C6" t="n">
         <v>40</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="n">
         <v>111</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>2 月 10 日</t>
         </is>
@@ -572,10 +642,21 @@
       <c r="C7" t="n">
         <v>45</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="n">
         <v>111</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>2 月 15 日</t>
         </is>
@@ -593,10 +674,21 @@
       <c r="C8" t="n">
         <v>60</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
         <v>111</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>2 月 28 日</t>
         </is>
@@ -614,10 +706,21 @@
       <c r="C9" t="n">
         <v>70</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
         <v>111</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>3 月 10 日</t>
         </is>
@@ -635,10 +738,21 @@
       <c r="C10" t="n">
         <v>90</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
         <v>111</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>3 月 31 日</t>
         </is>
